--- a/results/mp/deberta/corona/confidence/84/stop-words-topk-masking-0.2/homogenity_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-topk-masking-0.2/homogenity_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="1085">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="1085">
   <si>
     <t>anchor score</t>
   </si>
@@ -505,475 +505,475 @@
     <t>ridiculous</t>
   </si>
   <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>take</t>
+  </si>
+  <si>
+    <t>companies</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>shelves</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>lock</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>amid</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>taking</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>certainly</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>protection</t>
+  </si>
+  <si>
+    <t>report</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>recipe</t>
+  </si>
+  <si>
+    <t>rolls</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>found</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>grocery</t>
-  </si>
-  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>take</t>
-  </si>
-  <si>
-    <t>companies</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>global</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>shelves</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>lock</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>self</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>latest</t>
-  </si>
-  <si>
-    <t>world</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>amid</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>taking</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>certainly</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>protection</t>
-  </si>
-  <si>
-    <t>report</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>recipe</t>
-  </si>
-  <si>
-    <t>rolls</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>found</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>rt</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>kids</t>
   </si>
   <si>
     <t>san</t>
@@ -3637,7 +3637,7 @@
         <v>92</v>
       </c>
       <c r="J1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3695,7 +3695,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.0271130955274531</v>
+        <v>0.02743609330677391</v>
       </c>
       <c r="C3">
         <v>198</v>
@@ -3716,16 +3716,16 @@
         <v>94</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K3">
-        <v>0.005623359851094017</v>
+        <v>0.007193426091471739</v>
       </c>
       <c r="L3">
-        <v>121</v>
+        <v>198</v>
       </c>
       <c r="M3">
-        <v>121</v>
+        <v>198</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -3737,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>365</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3745,7 +3745,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.02271715332436663</v>
+        <v>0.02298778232977958</v>
       </c>
       <c r="C4">
         <v>139</v>
@@ -3766,28 +3766,28 @@
         <v>377</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>111</v>
+        <v>319</v>
       </c>
       <c r="K4">
-        <v>0.004596727617873775</v>
+        <v>0.006526750226256131</v>
       </c>
       <c r="L4">
-        <v>427</v>
+        <v>163</v>
       </c>
       <c r="M4">
-        <v>437</v>
+        <v>163</v>
       </c>
       <c r="N4">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>2764</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3795,7 +3795,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01019589900085658</v>
+        <v>0.01031736254721268</v>
       </c>
       <c r="C5">
         <v>28</v>
@@ -3816,28 +3816,28 @@
         <v>47</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>168</v>
+        <v>320</v>
       </c>
       <c r="K5">
-        <v>0.004520758513913409</v>
+        <v>0.005623359851094017</v>
       </c>
       <c r="L5">
-        <v>232</v>
+        <v>121</v>
       </c>
       <c r="M5">
-        <v>234</v>
+        <v>121</v>
       </c>
       <c r="N5">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>149</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3845,7 +3845,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.009634218981785162</v>
+        <v>0.009748991245005945</v>
       </c>
       <c r="C6">
         <v>25</v>
@@ -3866,28 +3866,28 @@
         <v>11</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="K6">
-        <v>0.004145103993116459</v>
+        <v>0.004596727617873775</v>
       </c>
       <c r="L6">
-        <v>611</v>
+        <v>427</v>
       </c>
       <c r="M6">
-        <v>639</v>
+        <v>437</v>
       </c>
       <c r="N6">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="O6">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P6" t="b">
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>2468</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3895,7 +3895,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.00924081821906861</v>
+        <v>0.009350903906659845</v>
       </c>
       <c r="C7">
         <v>23</v>
@@ -3916,28 +3916,28 @@
         <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>321</v>
+        <v>166</v>
       </c>
       <c r="K7">
-        <v>0.003791268438188904</v>
+        <v>0.004520758513913409</v>
       </c>
       <c r="L7">
-        <v>55</v>
+        <v>232</v>
       </c>
       <c r="M7">
-        <v>55</v>
+        <v>234</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3945,7 +3945,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.007462633934033862</v>
+        <v>0.007551536146845987</v>
       </c>
       <c r="C8">
         <v>15</v>
@@ -3966,28 +3966,28 @@
         <v>62</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>322</v>
+        <v>72</v>
       </c>
       <c r="K8">
-        <v>0.003233204587673163</v>
+        <v>0.004145103993116459</v>
       </c>
       <c r="L8">
-        <v>40</v>
+        <v>611</v>
       </c>
       <c r="M8">
-        <v>40</v>
+        <v>639</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>125</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3995,7 +3995,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.006947334107574974</v>
+        <v>0.007030097563583689</v>
       </c>
       <c r="C9">
         <v>13</v>
@@ -4016,16 +4016,16 @@
         <v>13</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K9">
-        <v>0.003151338019074318</v>
+        <v>0.003791268438188904</v>
       </c>
       <c r="L9">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="M9">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -4037,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>229</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4045,7 +4045,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.006947334107574974</v>
+        <v>0.007030097563583689</v>
       </c>
       <c r="C10">
         <v>13</v>
@@ -4066,16 +4066,16 @@
         <v>38</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K10">
-        <v>0.003109596599692551</v>
+        <v>0.003233204587673163</v>
       </c>
       <c r="L10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -4087,7 +4087,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>26</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4095,7 +4095,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.006947334107574974</v>
+        <v>0.007030097563583689</v>
       </c>
       <c r="C11">
         <v>13</v>
@@ -4116,28 +4116,28 @@
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>179</v>
+        <v>323</v>
       </c>
       <c r="K11">
-        <v>0.003074729215436231</v>
+        <v>0.003151338019074318</v>
       </c>
       <c r="L11">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="M11">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="N11">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>17</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4145,7 +4145,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.006947334107574974</v>
+        <v>0.007030097563583689</v>
       </c>
       <c r="C12">
         <v>13</v>
@@ -4166,16 +4166,16 @@
         <v>136</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K12">
-        <v>0.003067287191505827</v>
+        <v>0.003109596599692551</v>
       </c>
       <c r="L12">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M12">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -4187,7 +4187,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>79</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4195,7 +4195,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.006674782707078559</v>
+        <v>0.006754299263557784</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -4216,16 +4216,16 @@
         <v>13</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="K13">
-        <v>0.002822512624610478</v>
+        <v>0.003074729215436231</v>
       </c>
       <c r="L13">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="M13">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="N13">
         <v>0.99</v>
@@ -4237,7 +4237,7 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4245,7 +4245,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.006674782707078559</v>
+        <v>0.006754299263557784</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -4266,16 +4266,16 @@
         <v>18</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K14">
-        <v>0.00280003730855735</v>
+        <v>0.003067287191505827</v>
       </c>
       <c r="L14">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M14">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -4287,7 +4287,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>113</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -4295,7 +4295,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.006390617902140246</v>
+        <v>0.006466749208828894</v>
       </c>
       <c r="C15">
         <v>11</v>
@@ -4316,28 +4316,28 @@
         <v>8</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>327</v>
+        <v>180</v>
       </c>
       <c r="K15">
-        <v>0.002752974506178602</v>
+        <v>0.002822512624610478</v>
       </c>
       <c r="L15">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="M15">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>62</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -4345,7 +4345,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.006390617902140246</v>
+        <v>0.006466749208828894</v>
       </c>
       <c r="C16">
         <v>11</v>
@@ -4366,28 +4366,28 @@
         <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>164</v>
+        <v>326</v>
       </c>
       <c r="K16">
-        <v>0.002720500887083519</v>
+        <v>0.00280003730855735</v>
       </c>
       <c r="L16">
-        <v>189</v>
+        <v>30</v>
       </c>
       <c r="M16">
-        <v>195</v>
+        <v>30</v>
       </c>
       <c r="N16">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>706</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -4395,7 +4395,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.006093215091853874</v>
+        <v>0.006165803444651883</v>
       </c>
       <c r="C17">
         <v>10</v>
@@ -4416,28 +4416,28 @@
         <v>21</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>110</v>
+        <v>327</v>
       </c>
       <c r="K17">
-        <v>0.002676192777157015</v>
+        <v>0.002752974506178602</v>
       </c>
       <c r="L17">
-        <v>418</v>
+        <v>29</v>
       </c>
       <c r="M17">
-        <v>448</v>
+        <v>29</v>
       </c>
       <c r="N17">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1695</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -4445,7 +4445,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.006093215091853874</v>
+        <v>0.006165803444651883</v>
       </c>
       <c r="C18">
         <v>10</v>
@@ -4466,28 +4466,28 @@
         <v>5</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>328</v>
+        <v>163</v>
       </c>
       <c r="K18">
-        <v>0.002606692873880237</v>
+        <v>0.002720500887083519</v>
       </c>
       <c r="L18">
-        <v>26</v>
+        <v>189</v>
       </c>
       <c r="M18">
-        <v>26</v>
+        <v>195</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>274</v>
+        <v>706</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -4495,7 +4495,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.006093215091853874</v>
+        <v>0.006165803444651883</v>
       </c>
       <c r="C19">
         <v>10</v>
@@ -4516,28 +4516,28 @@
         <v>5</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K19">
-        <v>0.002602852182184033</v>
+        <v>0.002676192777157015</v>
       </c>
       <c r="L19">
-        <v>206</v>
+        <v>418</v>
       </c>
       <c r="M19">
-        <v>214</v>
+        <v>448</v>
       </c>
       <c r="N19">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="O19">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P19" t="b">
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>680</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -4545,7 +4545,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.006093215091853874</v>
+        <v>0.006165803444651883</v>
       </c>
       <c r="C20">
         <v>10</v>
@@ -4566,16 +4566,16 @@
         <v>24</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K20">
-        <v>0.00255607265958819</v>
+        <v>0.002606692873880237</v>
       </c>
       <c r="L20">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M20">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -4587,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>256</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -4595,7 +4595,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.005780531389071098</v>
+        <v>0.005849394747003567</v>
       </c>
       <c r="C21">
         <v>9</v>
@@ -4616,28 +4616,28 @@
         <v>18</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>330</v>
+        <v>112</v>
       </c>
       <c r="K21">
-        <v>0.00255607265958819</v>
+        <v>0.002602852182184033</v>
       </c>
       <c r="L21">
-        <v>25</v>
+        <v>206</v>
       </c>
       <c r="M21">
-        <v>25</v>
+        <v>214</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>22</v>
+        <v>680</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -4645,7 +4645,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.005780531389071098</v>
+        <v>0.005849394747003567</v>
       </c>
       <c r="C22">
         <v>9</v>
@@ -4666,7 +4666,7 @@
         <v>10</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K22">
         <v>0.00255607265958819</v>
@@ -4687,7 +4687,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>73</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -4695,7 +4695,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.005780531389071098</v>
+        <v>0.005849394747003567</v>
       </c>
       <c r="C23">
         <v>9</v>
@@ -4716,7 +4716,7 @@
         <v>5</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="K23">
         <v>0.00255607265958819</v>
@@ -4737,7 +4737,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>76</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -4745,7 +4745,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.005780531389071098</v>
+        <v>0.005849394747003567</v>
       </c>
       <c r="C24">
         <v>9</v>
@@ -4766,16 +4766,16 @@
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K24">
-        <v>0.002451698767346164</v>
+        <v>0.00255607265958819</v>
       </c>
       <c r="L24">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M24">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -4787,7 +4787,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -4795,7 +4795,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.005449937258765155</v>
+        <v>0.005514862255257589</v>
       </c>
       <c r="C25">
         <v>8</v>
@@ -4816,28 +4816,28 @@
         <v>4</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>170</v>
+        <v>332</v>
       </c>
       <c r="K25">
-        <v>0.002431130481344656</v>
+        <v>0.00255607265958819</v>
       </c>
       <c r="L25">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="M25">
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="N25">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>34</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -4845,7 +4845,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.005449937258765155</v>
+        <v>0.005514862255257589</v>
       </c>
       <c r="C26">
         <v>8</v>
@@ -4866,16 +4866,16 @@
         <v>23</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K26">
-        <v>0.002342679288873994</v>
+        <v>0.002451698767346164</v>
       </c>
       <c r="L26">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M26">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -4887,7 +4887,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>95</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -4895,7 +4895,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.005449937258765155</v>
+        <v>0.005514862255257589</v>
       </c>
       <c r="C27">
         <v>8</v>
@@ -4916,28 +4916,28 @@
         <v>29</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>335</v>
+        <v>168</v>
       </c>
       <c r="K27">
-        <v>0.002286220888907149</v>
+        <v>0.002431130481344656</v>
       </c>
       <c r="L27">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="M27">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -4945,7 +4945,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.005449937258765155</v>
+        <v>0.005514862255257589</v>
       </c>
       <c r="C28">
         <v>8</v>
@@ -4966,16 +4966,16 @@
         <v>2</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K28">
-        <v>0.002286220888907149</v>
+        <v>0.002342679288873994</v>
       </c>
       <c r="L28">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M28">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -4987,7 +4987,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -4995,7 +4995,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.005097949500428292</v>
+        <v>0.005158681273606339</v>
       </c>
       <c r="C29">
         <v>7</v>
@@ -5016,7 +5016,7 @@
         <v>2</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K29">
         <v>0.002286220888907149</v>
@@ -5037,7 +5037,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -5045,7 +5045,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.005097949500428292</v>
+        <v>0.005158681273606339</v>
       </c>
       <c r="C30">
         <v>7</v>
@@ -5066,28 +5066,28 @@
         <v>19</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>171</v>
+        <v>336</v>
       </c>
       <c r="K30">
-        <v>0.002275367332923261</v>
+        <v>0.002286220888907149</v>
       </c>
       <c r="L30">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="M30">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="N30">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>450</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -5095,7 +5095,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.005097949500428292</v>
+        <v>0.005158681273606339</v>
       </c>
       <c r="C31">
         <v>7</v>
@@ -5116,28 +5116,28 @@
         <v>4</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>176</v>
+        <v>337</v>
       </c>
       <c r="K31">
-        <v>0.002250455848185334</v>
+        <v>0.002286220888907149</v>
       </c>
       <c r="L31">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="M31">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="N31">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -5145,7 +5145,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.005097949500428292</v>
+        <v>0.005158681273606339</v>
       </c>
       <c r="C32">
         <v>7</v>
@@ -5166,28 +5166,28 @@
         <v>3</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>338</v>
+        <v>169</v>
       </c>
       <c r="K32">
-        <v>0.002228332483098432</v>
+        <v>0.002275367332923261</v>
       </c>
       <c r="L32">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="M32">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>206</v>
+        <v>450</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -5195,7 +5195,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.00471978411512195</v>
+        <v>0.004776010811425013</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -5216,28 +5216,28 @@
         <v>8</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>339</v>
+        <v>174</v>
       </c>
       <c r="K33">
-        <v>0.002228332483098432</v>
+        <v>0.002250455848185334</v>
       </c>
       <c r="L33">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="M33">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -5245,7 +5245,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.00471978411512195</v>
+        <v>0.004776010811425013</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -5266,7 +5266,7 @@
         <v>10</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K34">
         <v>0.002228332483098432</v>
@@ -5287,7 +5287,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>90</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -5295,7 +5295,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.00471978411512195</v>
+        <v>0.004776010811425013</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -5316,28 +5316,28 @@
         <v>2</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>165</v>
+        <v>339</v>
       </c>
       <c r="K35">
-        <v>0.002209408096442016</v>
+        <v>0.002228332483098432</v>
       </c>
       <c r="L35">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="M35">
-        <v>170</v>
+        <v>19</v>
       </c>
       <c r="N35">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>69</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -5345,7 +5345,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.00471978411512195</v>
+        <v>0.004776010811425013</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -5366,16 +5366,16 @@
         <v>6</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K36">
-        <v>0.002168899572960411</v>
+        <v>0.002228332483098432</v>
       </c>
       <c r="L36">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M36">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -5387,7 +5387,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -5395,7 +5395,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.00471978411512195</v>
+        <v>0.004776010811425013</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -5416,7 +5416,7 @@
         <v>34</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K37">
         <v>0.002168899572960411</v>
@@ -5437,7 +5437,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -5445,7 +5445,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.00471978411512195</v>
+        <v>0.004776010811425013</v>
       </c>
       <c r="C38">
         <v>6</v>
@@ -5466,28 +5466,28 @@
         <v>1</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>169</v>
+        <v>342</v>
       </c>
       <c r="K38">
-        <v>0.002122258119002956</v>
+        <v>0.002168899572960411</v>
       </c>
       <c r="L38">
-        <v>133</v>
+        <v>18</v>
       </c>
       <c r="M38">
-        <v>138</v>
+        <v>18</v>
       </c>
       <c r="N38">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>729</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -5495,7 +5495,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.004308553710678086</v>
+        <v>0.004359881427176721</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -5516,28 +5516,28 @@
         <v>16</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>343</v>
+        <v>167</v>
       </c>
       <c r="K39">
-        <v>0.002107791512447112</v>
+        <v>0.002122258119002956</v>
       </c>
       <c r="L39">
-        <v>17</v>
+        <v>133</v>
       </c>
       <c r="M39">
-        <v>17</v>
+        <v>138</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>40</v>
+        <v>729</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -5545,7 +5545,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.004308553710678086</v>
+        <v>0.004359881427176721</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -5566,7 +5566,7 @@
         <v>27</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K40">
         <v>0.002107791512447112</v>
@@ -5587,7 +5587,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>112</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -5595,7 +5595,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.004308553710678086</v>
+        <v>0.004359881427176721</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -5616,28 +5616,28 @@
         <v>19</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>173</v>
+        <v>344</v>
       </c>
       <c r="K41">
-        <v>0.002097583401516898</v>
+        <v>0.002107791512447112</v>
       </c>
       <c r="L41">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="M41">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="N41">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>309</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -5645,7 +5645,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.004308553710678086</v>
+        <v>0.004359881427176721</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -5666,28 +5666,28 @@
         <v>3</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="K42">
-        <v>0.002056798207688175</v>
+        <v>0.002097583401516898</v>
       </c>
       <c r="L42">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="M42">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="N42">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="O42">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>93</v>
+        <v>309</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -5695,7 +5695,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.004308553710678086</v>
+        <v>0.004359881427176721</v>
       </c>
       <c r="C43">
         <v>5</v>
@@ -5716,28 +5716,28 @@
         <v>3</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>345</v>
+        <v>184</v>
       </c>
       <c r="K43">
-        <v>0.002044858127670552</v>
+        <v>0.002056798207688175</v>
       </c>
       <c r="L43">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="M43">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43">
-        <v>214</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -5745,7 +5745,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.004308553710678086</v>
+        <v>0.004359881427176721</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -5766,28 +5766,28 @@
         <v>33</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>175</v>
+        <v>345</v>
       </c>
       <c r="K44">
-        <v>0.00204321588008163</v>
+        <v>0.002044858127670552</v>
       </c>
       <c r="L44">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="M44">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="N44">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>16</v>
+        <v>214</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -5795,7 +5795,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.004308553710678086</v>
+        <v>0.004359881427176721</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -5816,28 +5816,28 @@
         <v>161</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="K45">
-        <v>0.00203573819365939</v>
+        <v>0.00204321588008163</v>
       </c>
       <c r="L45">
-        <v>198</v>
+        <v>101</v>
       </c>
       <c r="M45">
-        <v>210</v>
+        <v>104</v>
       </c>
       <c r="N45">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O45">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>130</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -5845,7 +5845,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.004308553710678086</v>
+        <v>0.004359881427176721</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -5895,7 +5895,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.004308553710678086</v>
+        <v>0.004359881427176721</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -5945,7 +5945,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.004308553710678086</v>
+        <v>0.004359881427176721</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -5995,7 +5995,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.004308553710678086</v>
+        <v>0.004359881427176721</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -6045,7 +6045,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.003853687592714065</v>
+        <v>0.003899596498002378</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -6095,7 +6095,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.003853687592714065</v>
+        <v>0.003899596498002378</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -6145,7 +6145,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.003853687592714065</v>
+        <v>0.003899596498002378</v>
       </c>
       <c r="C52">
         <v>4</v>
@@ -6166,7 +6166,7 @@
         <v>2</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K52">
         <v>0.001874382326092676</v>
@@ -6195,7 +6195,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.003853687592714065</v>
+        <v>0.003899596498002378</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -6216,7 +6216,7 @@
         <v>369</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K53">
         <v>0.001869982154378665</v>
@@ -6245,7 +6245,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.003853687592714065</v>
+        <v>0.003899596498002378</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -6295,7 +6295,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.003853687592714065</v>
+        <v>0.003899596498002378</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -6345,7 +6345,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.003853687592714065</v>
+        <v>0.003899596498002378</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -6395,7 +6395,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.003853687592714065</v>
+        <v>0.003899596498002378</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -6445,7 +6445,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.003853687592714065</v>
+        <v>0.003899596498002378</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -6495,7 +6495,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.003853687592714065</v>
+        <v>0.003899596498002378</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -6545,7 +6545,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.003853687592714065</v>
+        <v>0.003899596498002378</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -6566,7 +6566,7 @@
         <v>9</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K60">
         <v>0.00172737782809335</v>
@@ -6595,7 +6595,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.003853687592714065</v>
+        <v>0.003899596498002378</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -6645,7 +6645,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.003853687592714065</v>
+        <v>0.003899596498002378</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -6695,7 +6695,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.003853687592714065</v>
+        <v>0.003899596498002378</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -6745,7 +6745,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.003853687592714065</v>
+        <v>0.003899596498002378</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -6795,7 +6795,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.003853687592714065</v>
+        <v>0.003899596498002378</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -6845,7 +6845,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.003853687592714065</v>
+        <v>0.003899596498002378</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -6895,7 +6895,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.003344545893134124</v>
+        <v>0.003384389403264682</v>
       </c>
       <c r="C67">
         <v>28</v>
@@ -6945,7 +6945,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.003337391353539279</v>
+        <v>0.003377149631778892</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -6995,7 +6995,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.003337391353539279</v>
+        <v>0.003377149631778892</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -7016,7 +7016,7 @@
         <v>4</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K69">
         <v>0.001647795063659072</v>
@@ -7045,7 +7045,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.003337391353539279</v>
+        <v>0.003377149631778892</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -7095,7 +7095,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.003337391353539279</v>
+        <v>0.003377149631778892</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -7145,7 +7145,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.003337391353539279</v>
+        <v>0.003377149631778892</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -7195,7 +7195,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.003337391353539279</v>
+        <v>0.003377149631778892</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -7245,7 +7245,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.003337391353539279</v>
+        <v>0.003377149631778892</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -7295,7 +7295,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.003337391353539279</v>
+        <v>0.003377149631778892</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -7345,7 +7345,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.003337391353539279</v>
+        <v>0.003377149631778892</v>
       </c>
       <c r="C76">
         <v>3</v>
@@ -7395,7 +7395,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.003337391353539279</v>
+        <v>0.003377149631778892</v>
       </c>
       <c r="C77">
         <v>3</v>
@@ -7445,7 +7445,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.003337391353539279</v>
+        <v>0.003377149631778892</v>
       </c>
       <c r="C78">
         <v>3</v>
@@ -7495,7 +7495,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.003337391353539279</v>
+        <v>0.003377149631778892</v>
       </c>
       <c r="C79">
         <v>3</v>
@@ -7516,7 +7516,7 @@
         <v>12</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K79">
         <v>0.001615972424153076</v>
@@ -7545,7 +7545,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.003337391353539279</v>
+        <v>0.003377149631778892</v>
       </c>
       <c r="C80">
         <v>3</v>
@@ -7566,7 +7566,7 @@
         <v>28</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K80">
         <v>0.001577197160545184</v>
@@ -7595,7 +7595,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.003337391353539279</v>
+        <v>0.003377149631778892</v>
       </c>
       <c r="C81">
         <v>3</v>
@@ -7645,7 +7645,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.003337391353539279</v>
+        <v>0.003377149631778892</v>
       </c>
       <c r="C82">
         <v>3</v>
@@ -7695,7 +7695,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.002724968629382578</v>
+        <v>0.002757431127628795</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -7745,7 +7745,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.002724968629382578</v>
+        <v>0.002757431127628795</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -7795,7 +7795,7 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.002724968629382578</v>
+        <v>0.002757431127628795</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -7845,7 +7845,7 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.002724968629382578</v>
+        <v>0.002757431127628795</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -7895,7 +7895,7 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.002724968629382578</v>
+        <v>0.002757431127628795</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -7945,7 +7945,7 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.002724968629382578</v>
+        <v>0.002757431127628795</v>
       </c>
       <c r="C88">
         <v>2</v>
@@ -7966,7 +7966,7 @@
         <v>4</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K88">
         <v>0.001516610595064714</v>
@@ -7995,7 +7995,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.002724968629382578</v>
+        <v>0.002757431127628795</v>
       </c>
       <c r="C89">
         <v>2</v>
@@ -8016,7 +8016,7 @@
         <v>4</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K89">
         <v>0.001462367041417179</v>
@@ -8045,7 +8045,7 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.002724968629382578</v>
+        <v>0.002757431127628795</v>
       </c>
       <c r="C90">
         <v>2</v>
@@ -8095,7 +8095,7 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.002724968629382578</v>
+        <v>0.002757431127628795</v>
       </c>
       <c r="C91">
         <v>2</v>
@@ -8145,7 +8145,7 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.002724968629382578</v>
+        <v>0.002757431127628795</v>
       </c>
       <c r="C92">
         <v>2</v>
@@ -8195,7 +8195,7 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.002724968629382578</v>
+        <v>0.002757431127628795</v>
       </c>
       <c r="C93">
         <v>2</v>
@@ -8245,7 +8245,7 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.002724968629382578</v>
+        <v>0.002757431127628795</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -8295,7 +8295,7 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.002724968629382578</v>
+        <v>0.002757431127628795</v>
       </c>
       <c r="C95">
         <v>2</v>
@@ -8345,7 +8345,7 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.002724968629382578</v>
+        <v>0.002757431127628795</v>
       </c>
       <c r="C96">
         <v>2</v>
@@ -8395,7 +8395,7 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.002724968629382578</v>
+        <v>0.002757431127628795</v>
       </c>
       <c r="C97">
         <v>2</v>
@@ -8445,7 +8445,7 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.002724968629382578</v>
+        <v>0.002757431127628795</v>
       </c>
       <c r="C98">
         <v>2</v>
@@ -8495,7 +8495,7 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.002724968629382578</v>
+        <v>0.002757431127628795</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -8545,7 +8545,7 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.002724968629382578</v>
+        <v>0.002757431127628795</v>
       </c>
       <c r="C100">
         <v>2</v>
@@ -8595,7 +8595,7 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.002724968629382578</v>
+        <v>0.002757431127628795</v>
       </c>
       <c r="C101">
         <v>2</v>
@@ -8645,7 +8645,7 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.002724968629382578</v>
+        <v>0.002757431127628795</v>
       </c>
       <c r="C102">
         <v>2</v>
@@ -8695,7 +8695,7 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.002724968629382578</v>
+        <v>0.002757431127628795</v>
       </c>
       <c r="C103">
         <v>2</v>
@@ -8745,7 +8745,7 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.002724968629382578</v>
+        <v>0.002757431127628795</v>
       </c>
       <c r="C104">
         <v>2</v>
@@ -8795,7 +8795,7 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.002702297746725278</v>
+        <v>0.002734490167187639</v>
       </c>
       <c r="C105">
         <v>30</v>
@@ -8845,7 +8845,7 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.002651417698923014</v>
+        <v>0.002683003986366176</v>
       </c>
       <c r="C106">
         <v>10</v>
@@ -8895,7 +8895,7 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.001933322060773117</v>
+        <v>0.001956353688855177</v>
       </c>
       <c r="C107">
         <v>8</v>
@@ -8945,7 +8945,7 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.001926843796357033</v>
+        <v>0.001949798249001189</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -8995,7 +8995,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.001926843796357033</v>
+        <v>0.001949798249001189</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -9045,7 +9045,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.001926843796357033</v>
+        <v>0.001949798249001189</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -9095,7 +9095,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.001926843796357033</v>
+        <v>0.001949798249001189</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -9145,7 +9145,7 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.001926843796357033</v>
+        <v>0.001949798249001189</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -9195,7 +9195,7 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.001926843796357033</v>
+        <v>0.001949798249001189</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -9245,7 +9245,7 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.001926843796357033</v>
+        <v>0.001949798249001189</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -9295,7 +9295,7 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.001926843796357033</v>
+        <v>0.001949798249001189</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -9345,7 +9345,7 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.001926843796357033</v>
+        <v>0.001949798249001189</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -9395,7 +9395,7 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.001926843796357033</v>
+        <v>0.001949798249001189</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -9445,7 +9445,7 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.001926843796357033</v>
+        <v>0.001949798249001189</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -9495,7 +9495,7 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.001926843796357033</v>
+        <v>0.001949798249001189</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -9516,7 +9516,7 @@
         <v>5</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K119">
         <v>0.001343952723446348</v>
@@ -9545,7 +9545,7 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.001926843796357033</v>
+        <v>0.001949798249001189</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -9566,7 +9566,7 @@
         <v>18</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K120">
         <v>0.001252456856197591</v>
@@ -9595,7 +9595,7 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.001926843796357033</v>
+        <v>0.001949798249001189</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -9645,7 +9645,7 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.001926843796357033</v>
+        <v>0.001949798249001189</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -9695,7 +9695,7 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.001926843796357033</v>
+        <v>0.001949798249001189</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -9745,7 +9745,7 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.001926843796357033</v>
+        <v>0.001949798249001189</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -9795,7 +9795,7 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.001926843796357033</v>
+        <v>0.001949798249001189</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -9845,7 +9845,7 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.001926843796357033</v>
+        <v>0.001949798249001189</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -9895,7 +9895,7 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.001926843796357033</v>
+        <v>0.001949798249001189</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -9945,7 +9945,7 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.001926843796357033</v>
+        <v>0.001949798249001189</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -9995,7 +9995,7 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.001926843796357033</v>
+        <v>0.001949798249001189</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -10016,7 +10016,7 @@
         <v>17</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K129">
         <v>0.001191582368610321</v>
@@ -10045,7 +10045,7 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.001926843796357033</v>
+        <v>0.001949798249001189</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -10066,7 +10066,7 @@
         <v>21</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K130">
         <v>0.001158565237278221</v>
@@ -10095,7 +10095,7 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.001926843796357033</v>
+        <v>0.001949798249001189</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -10145,7 +10145,7 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.001926843796357033</v>
+        <v>0.001949798249001189</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -10195,7 +10195,7 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.001926843796357033</v>
+        <v>0.001949798249001189</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -10245,7 +10245,7 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.001926843796357033</v>
+        <v>0.001949798249001189</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -10295,7 +10295,7 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.001926843796357033</v>
+        <v>0.001949798249001189</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -10345,7 +10345,7 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.001926843796357033</v>
+        <v>0.001949798249001189</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -10395,7 +10395,7 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.001926843796357033</v>
+        <v>0.001949798249001189</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -10445,7 +10445,7 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.001926843796357033</v>
+        <v>0.001949798249001189</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -10495,7 +10495,7 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.001926843796357033</v>
+        <v>0.001949798249001189</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -10545,7 +10545,7 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.001926843796357033</v>
+        <v>0.001949798249001189</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -10595,7 +10595,7 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.001926843796357033</v>
+        <v>0.001949798249001189</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -10645,7 +10645,7 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.001926843796357033</v>
+        <v>0.001949798249001189</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -10695,7 +10695,7 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.001926843796357033</v>
+        <v>0.001949798249001189</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -10745,7 +10745,7 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.001926843796357033</v>
+        <v>0.001949798249001189</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -10795,7 +10795,7 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.001926843796357033</v>
+        <v>0.001949798249001189</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -10845,7 +10845,7 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.001926843796357033</v>
+        <v>0.001949798249001189</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -10895,7 +10895,7 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.001926843796357033</v>
+        <v>0.001949798249001189</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -10945,7 +10945,7 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.001926843796357033</v>
+        <v>0.001949798249001189</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -10995,7 +10995,7 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.001926843796357033</v>
+        <v>0.001949798249001189</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -11045,7 +11045,7 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.001926843796357033</v>
+        <v>0.001949798249001189</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -11095,7 +11095,7 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.001926843796357033</v>
+        <v>0.001949798249001189</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -11145,7 +11145,7 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.001926843796357033</v>
+        <v>0.001949798249001189</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -11195,7 +11195,7 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.001926843796357033</v>
+        <v>0.001949798249001189</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -11245,7 +11245,7 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.001926843796357033</v>
+        <v>0.001949798249001189</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -11295,7 +11295,7 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.001926843796357033</v>
+        <v>0.001949798249001189</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -11345,7 +11345,7 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.001926843796357033</v>
+        <v>0.001949798249001189</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -11395,7 +11395,7 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.001926843796357033</v>
+        <v>0.001949798249001189</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -11445,28 +11445,28 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.001888962216110983</v>
+        <v>0.001848758059615772</v>
       </c>
       <c r="C158">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D158">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="E158">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F158">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>130</v>
+        <v>706</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K158">
         <v>0.001126690282262597</v>
@@ -11495,28 +11495,28 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.001826993126063446</v>
+        <v>0.001707636290687717</v>
       </c>
       <c r="C159">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D159">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="E159">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F159">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>706</v>
+        <v>129</v>
       </c>
       <c r="J159" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K159">
         <v>0.001126690282262597</v>
@@ -11545,28 +11545,28 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.001725736470837757</v>
+        <v>0.00166210632323055</v>
       </c>
       <c r="C160">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D160">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="E160">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F160">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>69</v>
+        <v>262</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K160">
         <v>0.001098897538641343</v>
@@ -11595,28 +11595,28 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.00168753274592963</v>
+        <v>0.001600916938170464</v>
       </c>
       <c r="C161">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D161">
-        <v>166</v>
+        <v>234</v>
       </c>
       <c r="E161">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="F161">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K161">
         <v>0.001098395040432409</v>
@@ -11645,28 +11645,28 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.001642538790586753</v>
+        <v>0.001569436941141491</v>
       </c>
       <c r="C162">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D162">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="E162">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F162">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>262</v>
+        <v>729</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K162">
         <v>0.001094512628986238</v>
@@ -11695,28 +11695,28 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.001582069771770921</v>
+        <v>0.001448114244383792</v>
       </c>
       <c r="C163">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D163">
-        <v>234</v>
+        <v>126</v>
       </c>
       <c r="E163">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="F163">
-        <v>0.01000000000000001</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>149</v>
+        <v>34</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K163">
         <v>0.001091602945049362</v>
@@ -11745,28 +11745,28 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.001550960380316864</v>
+        <v>0.001407817001767226</v>
       </c>
       <c r="C164">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D164">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="E164">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F164">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>729</v>
+        <v>450</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K164">
         <v>0.001063258855885577</v>
@@ -11795,28 +11795,28 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.001431065983178786</v>
+        <v>0.00138937514874328</v>
       </c>
       <c r="C165">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D165">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="E165">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F165">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>34</v>
+        <v>1051</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K165">
         <v>0.001062023442242844</v>
@@ -11845,13 +11845,13 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.001391243149208245</v>
+        <v>0.001358781673713925</v>
       </c>
       <c r="C166">
         <v>3</v>
       </c>
       <c r="D166">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E166">
         <v>0.97</v>
@@ -11863,7 +11863,7 @@
         <v>1</v>
       </c>
       <c r="H166">
-        <v>450</v>
+        <v>309</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>446</v>
@@ -11895,25 +11895,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.00137301840718136</v>
+        <v>0.001349456253336728</v>
       </c>
       <c r="C167">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D167">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E167">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F167">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
       </c>
       <c r="H167">
-        <v>1051</v>
+        <v>542</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>447</v>
@@ -11945,13 +11945,13 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.001342785100940824</v>
+        <v>0.001343076286214027</v>
       </c>
       <c r="C168">
         <v>3</v>
       </c>
       <c r="D168">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E168">
         <v>0.97</v>
@@ -11963,7 +11963,7 @@
         <v>1</v>
       </c>
       <c r="H168">
-        <v>309</v>
+        <v>16</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>448</v>
@@ -11995,25 +11995,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.00133356946624045</v>
+        <v>0.001245403773990147</v>
       </c>
       <c r="C169">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D169">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="E169">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="F169">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>542</v>
+        <v>15</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>449</v>
@@ -12045,25 +12045,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.001327264608762176</v>
+        <v>0.001217041301539197</v>
       </c>
       <c r="C170">
         <v>3</v>
       </c>
       <c r="D170">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="E170">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F170">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>450</v>
@@ -12095,25 +12095,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.001230741968868743</v>
+        <v>0.001119646767962477</v>
       </c>
       <c r="C171">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D171">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="E171">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="F171">
-        <v>0.02000000000000002</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>451</v>
@@ -12145,25 +12145,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.001202713400210701</v>
+        <v>0.001118142145023586</v>
       </c>
       <c r="C172">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D172">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="E172">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="F172">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>132</v>
+        <v>17</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>452</v>
@@ -12195,25 +12195,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.001106465466396254</v>
+        <v>0.001113627133689052</v>
       </c>
       <c r="C173">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D173">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E173">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F173">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>31</v>
+        <v>236</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>453</v>
@@ -12245,25 +12245,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.001104978556980296</v>
+        <v>0.001099653953126214</v>
       </c>
       <c r="C174">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D174">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="E174">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="F174">
-        <v>0.01000000000000001</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>17</v>
+        <v>254</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>454</v>
@@ -12295,25 +12295,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.001100516699665117</v>
+        <v>0.00108745010772001</v>
       </c>
       <c r="C175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D175">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="E175">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F175">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>236</v>
+        <v>43</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>455</v>
@@ -12345,25 +12345,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.001086708021615133</v>
+        <v>0.001081132070370395</v>
       </c>
       <c r="C176">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D176">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E176">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F176">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
       </c>
       <c r="H176">
-        <v>254</v>
+        <v>15</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>456</v>
@@ -12395,25 +12395,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.001074647848812798</v>
+        <v>0.001079220141031662</v>
       </c>
       <c r="C177">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D177">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="E177">
-        <v>0.99</v>
+        <v>0.92</v>
       </c>
       <c r="F177">
-        <v>0.01000000000000001</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>43</v>
+        <v>274</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>457</v>
@@ -12445,25 +12445,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.001068404192024977</v>
+        <v>0.001064578857612533</v>
       </c>
       <c r="C178">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D178">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E178">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F178">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>458</v>
@@ -12495,25 +12495,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.001066514771318348</v>
+        <v>0.0009730193841394009</v>
       </c>
       <c r="C179">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D179">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E179">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="F179">
-        <v>0.07999999999999996</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>274</v>
+        <v>93</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>459</v>
@@ -12545,25 +12545,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.001052045855808087</v>
+        <v>0.0009552581326417084</v>
       </c>
       <c r="C180">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D180">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E180">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="F180">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>28</v>
+        <v>155</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>460</v>
@@ -12595,25 +12595,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.0009615642874972148</v>
+        <v>0.00093751154101183</v>
       </c>
       <c r="C181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D181">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="E181">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="F181">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>461</v>
@@ -12645,25 +12645,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.0009440121344570745</v>
+        <v>0.0009277217895182054</v>
       </c>
       <c r="C182">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D182">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E182">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F182">
-        <v>0.07999999999999996</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>462</v>
@@ -12695,13 +12695,13 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.0009264744686980508</v>
+        <v>0.0008979082338554662</v>
       </c>
       <c r="C183">
         <v>2</v>
       </c>
       <c r="D183">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E183">
         <v>0.96</v>
@@ -12713,7 +12713,7 @@
         <v>1</v>
       </c>
       <c r="H183">
-        <v>40</v>
+        <v>192</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>463</v>
@@ -12745,25 +12745,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.0009167999693271388</v>
+        <v>0.0008774523529729109</v>
       </c>
       <c r="C184">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D184">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E184">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="F184">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>464</v>
@@ -12795,25 +12795,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.0008873374006713706</v>
+        <v>0.0008505672328668097</v>
       </c>
       <c r="C185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D185">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E185">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="F185">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>465</v>
@@ -12845,25 +12845,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.0008671223413965143</v>
+        <v>0.0007961557013396991</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
       <c r="D186">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E186">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F186">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>115</v>
+        <v>269</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>466</v>
@@ -12895,25 +12895,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.0008405537326097888</v>
+        <v>0.0007692190103325134</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E187">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F187">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>186</v>
+        <v>103</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>467</v>
@@ -12945,13 +12945,13 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.0007867827734723471</v>
+        <v>0.0007596543773545082</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E188">
         <v>0.97</v>
@@ -12963,7 +12963,7 @@
         <v>1</v>
       </c>
       <c r="H188">
-        <v>269</v>
+        <v>152</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>468</v>
@@ -12995,13 +12995,13 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.0007601632009149454</v>
+        <v>0.0007596543773545082</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E189">
         <v>0.97</v>
@@ -13013,7 +13013,7 @@
         <v>1</v>
       </c>
       <c r="H189">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>469</v>
@@ -13045,13 +13045,13 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.0007507111697996533</v>
+        <v>0.000749767162004301</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E190">
         <v>0.97</v>
@@ -13063,7 +13063,7 @@
         <v>1</v>
       </c>
       <c r="H190">
-        <v>152</v>
+        <v>33</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>470</v>
@@ -13095,13 +13095,13 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.0007507111697996533</v>
+        <v>0.0007395370917933249</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E191">
         <v>0.97</v>
@@ -13113,7 +13113,7 @@
         <v>1</v>
       </c>
       <c r="H191">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>471</v>
@@ -13145,25 +13145,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.000740940353988042</v>
+        <v>0.00073835029621599</v>
       </c>
       <c r="C192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D192">
         <v>32</v>
       </c>
       <c r="E192">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F192">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>472</v>
@@ -13195,25 +13195,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.0007308307196541237</v>
+        <v>0.0007239794173045158</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D193">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E193">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="F193">
-        <v>0.03000000000000003</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>473</v>
@@ -13245,25 +13245,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.000729657895903306</v>
+        <v>0.0007179574929063504</v>
       </c>
       <c r="C194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D194">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E194">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F194">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>474</v>
@@ -13295,25 +13295,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.000715456201500843</v>
+        <v>0.000703018012478932</v>
       </c>
       <c r="C195">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D195">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E195">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="F195">
-        <v>0.08999999999999997</v>
+        <v>0.11</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>35</v>
+        <v>507</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>475</v>
@@ -13345,25 +13345,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.000709505171605991</v>
+        <v>0.0006758714946549874</v>
       </c>
       <c r="C196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D196">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E196">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="F196">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>476</v>
@@ -13395,25 +13395,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.0006947415696809639</v>
+        <v>0.0006695460846690017</v>
       </c>
       <c r="C197">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D197">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E197">
-        <v>0.89</v>
+        <v>0.96</v>
       </c>
       <c r="F197">
-        <v>0.11</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>507</v>
+        <v>335</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>477</v>
@@ -13445,25 +13445,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.000667914640541727</v>
+        <v>0.0006561512025461434</v>
       </c>
       <c r="C198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D198">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E198">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F198">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>478</v>
@@ -13495,13 +13495,13 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.0006616636979136089</v>
+        <v>0.0006561512025461434</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E199">
         <v>0.96</v>
@@ -13513,7 +13513,7 @@
         <v>1</v>
       </c>
       <c r="H199">
-        <v>335</v>
+        <v>107</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>479</v>
@@ -13545,7 +13545,7 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.0006484265101509342</v>
+        <v>0.0006561512025461434</v>
       </c>
       <c r="C200">
         <v>1</v>
@@ -13563,7 +13563,7 @@
         <v>1</v>
       </c>
       <c r="H200">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>480</v>
@@ -13595,25 +13595,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.0006484265101509342</v>
+        <v>0.0006413206420284167</v>
       </c>
       <c r="C201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D201">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E201">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="F201">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>481</v>
@@ -13645,25 +13645,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.0006484265101509342</v>
+        <v>0.0006276185263179354</v>
       </c>
       <c r="C202">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D202">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E202">
-        <v>0.96</v>
+        <v>0.14</v>
       </c>
       <c r="F202">
-        <v>0.04000000000000004</v>
+        <v>0.86</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>140</v>
+        <v>245</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>482</v>
@@ -13695,25 +13695,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.00063377054585067</v>
+        <v>0.0006121523493057421</v>
       </c>
       <c r="C203">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D203">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E203">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F203">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>146</v>
+        <v>30</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>483</v>
@@ -13745,25 +13745,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.0006202297414791243</v>
+        <v>0.0005990368033965503</v>
       </c>
       <c r="C204">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D204">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E204">
-        <v>0.14</v>
+        <v>0.89</v>
       </c>
       <c r="F204">
-        <v>0.86</v>
+        <v>0.11</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>245</v>
+        <v>105</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>484</v>
@@ -13795,13 +13795,13 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.0006049456436271695</v>
+        <v>0.0005960218046130519</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E205">
         <v>0.95</v>
@@ -13813,7 +13813,7 @@
         <v>1</v>
       </c>
       <c r="H205">
-        <v>30</v>
+        <v>207</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>485</v>
@@ -13845,25 +13845,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.0005919845035277218</v>
+        <v>0.0005960218046130519</v>
       </c>
       <c r="C206">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D206">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E206">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
       <c r="F206">
-        <v>0.11</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>486</v>
@@ -13895,25 +13895,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.0005890049995175076</v>
+        <v>0.0005611294455330448</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E207">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F207">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>207</v>
+        <v>91</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>487</v>
@@ -13945,25 +13945,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.0005890049995175076</v>
+        <v>0.0005611294455330448</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
       <c r="D208">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E208">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F208">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>488</v>
@@ -13995,7 +13995,7 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.0005545234188370376</v>
+        <v>0.0005611294455330448</v>
       </c>
       <c r="C209">
         <v>1</v>
@@ -14013,7 +14013,7 @@
         <v>1</v>
       </c>
       <c r="H209">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>489</v>
@@ -14045,28 +14045,28 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.0005545234188370376</v>
+        <v>0.000542660444828421</v>
       </c>
       <c r="C210">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D210">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E210">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F210">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="J210" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K210">
         <v>0.0009960732169499119</v>
@@ -14095,13 +14095,13 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.0005545234188370376</v>
+        <v>0.0005421841136850458</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E211">
         <v>0.9399999999999999</v>
@@ -14113,10 +14113,10 @@
         <v>1</v>
       </c>
       <c r="H211">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="J211" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K211">
         <v>0.0009627634029791846</v>
@@ -14145,28 +14145,28 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.0005362718487318495</v>
+        <v>0.0005421841136850458</v>
       </c>
       <c r="C212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D212">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E212">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F212">
-        <v>0.09999999999999998</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="J212" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K212">
         <v>0.0009595607531049364</v>
@@ -14195,25 +14195,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.0005358011253074673</v>
+        <v>0.0005369193822624234</v>
       </c>
       <c r="C213">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D213">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E213">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="F213">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>490</v>
@@ -14245,25 +14245,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.0005358011253074673</v>
+        <v>0.0005203875740808744</v>
       </c>
       <c r="C214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D214">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E214">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F214">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>491</v>
@@ -14295,25 +14295,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.0005305983741580279</v>
+        <v>0.0005007212567904064</v>
       </c>
       <c r="C215">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D215">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E215">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="F215">
-        <v>0.12</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>492</v>
@@ -14345,25 +14345,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.0005142611905271063</v>
+        <v>0.0005007212567904064</v>
       </c>
       <c r="C216">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D216">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E216">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="F216">
-        <v>0.09999999999999998</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>493</v>
@@ -14395,7 +14395,7 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.0004948263995236068</v>
+        <v>0.0005007212567904064</v>
       </c>
       <c r="C217">
         <v>1</v>
@@ -14413,7 +14413,7 @@
         <v>1</v>
       </c>
       <c r="H217">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>494</v>
@@ -14445,25 +14445,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.0004948263995236068</v>
+        <v>0.0004971088039201417</v>
       </c>
       <c r="C218">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D218">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E218">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F218">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>495</v>
@@ -14495,25 +14495,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.0004948263995236068</v>
+        <v>0.0004905349362532917</v>
       </c>
       <c r="C219">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D219">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E219">
-        <v>0.93</v>
+        <v>0.85</v>
       </c>
       <c r="F219">
-        <v>0.06999999999999995</v>
+        <v>0.15</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>496</v>
@@ -14545,25 +14545,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.0004912564750935959</v>
+        <v>0.000477913317081229</v>
       </c>
       <c r="C220">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D220">
+        <v>14</v>
+      </c>
+      <c r="E220">
+        <v>0.93</v>
+      </c>
+      <c r="F220">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="G220" t="b">
+        <v>1</v>
+      </c>
+      <c r="H220">
         <v>19</v>
-      </c>
-      <c r="E220">
-        <v>0.89</v>
-      </c>
-      <c r="F220">
-        <v>0.11</v>
-      </c>
-      <c r="G220" t="b">
-        <v>1</v>
-      </c>
-      <c r="H220">
-        <v>54</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>497</v>
@@ -14595,25 +14595,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.0004847599998103554</v>
+        <v>0.000477913317081229</v>
       </c>
       <c r="C221">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D221">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E221">
-        <v>0.85</v>
+        <v>0.93</v>
       </c>
       <c r="F221">
-        <v>0.15</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>498</v>
@@ -14645,25 +14645,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.0004722869715808305</v>
+        <v>0.0004534821748932043</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E222">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F222">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>499</v>
@@ -14695,25 +14695,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.0004722869715808305</v>
+        <v>0.0004471899915067856</v>
       </c>
       <c r="C223">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D223">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E223">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="F223">
-        <v>0.06999999999999995</v>
+        <v>0.12</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>500</v>
@@ -14745,25 +14745,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.0004481434506873088</v>
+        <v>0.0004340494671954289</v>
       </c>
       <c r="C224">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D224">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="E224">
-        <v>0.92</v>
+        <v>0.77</v>
       </c>
       <c r="F224">
-        <v>0.07999999999999996</v>
+        <v>0.23</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>67</v>
+        <v>912</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>501</v>
@@ -14795,25 +14795,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.000441925343490899</v>
+        <v>0.0004272044241292741</v>
       </c>
       <c r="C225">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D225">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E225">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="F225">
-        <v>0.12</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>502</v>
@@ -14845,25 +14845,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.0004289395190533262</v>
+        <v>0.0004272044241292741</v>
       </c>
       <c r="C226">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D226">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="E226">
-        <v>0.77</v>
+        <v>0.92</v>
       </c>
       <c r="F226">
-        <v>0.23</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>912</v>
+        <v>77</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>503</v>
@@ -14895,25 +14895,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.000422175060846138</v>
+        <v>0.0004203537492017083</v>
       </c>
       <c r="C227">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D227">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E227">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="F227">
-        <v>0.07999999999999996</v>
+        <v>0.12</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>504</v>
@@ -14945,25 +14945,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.000422175060846138</v>
+        <v>0.0003988100213649235</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E228">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F228">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>505</v>
@@ -14995,25 +14995,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.0004154050370799352</v>
+        <v>0.0003988100213649235</v>
       </c>
       <c r="C229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D229">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E229">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="F229">
-        <v>0.12</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>506</v>
@@ -15045,7 +15045,7 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.0003941149377817243</v>
+        <v>0.0003988100213649235</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -15063,7 +15063,7 @@
         <v>1</v>
       </c>
       <c r="H230">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>507</v>
@@ -15095,7 +15095,7 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.0003941149377817243</v>
+        <v>0.0003988100213649235</v>
       </c>
       <c r="C231">
         <v>1</v>
@@ -15113,7 +15113,7 @@
         <v>1</v>
       </c>
       <c r="H231">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>508</v>
@@ -15145,7 +15145,7 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.0003941149377817243</v>
+        <v>0.0003988100213649235</v>
       </c>
       <c r="C232">
         <v>1</v>
@@ -15163,7 +15163,7 @@
         <v>1</v>
       </c>
       <c r="H232">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>509</v>
@@ -15195,25 +15195,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.0003941149377817243</v>
+        <v>0.0003921175317037595</v>
       </c>
       <c r="C233">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D233">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E233">
-        <v>0.91</v>
+        <v>0.87</v>
       </c>
       <c r="F233">
-        <v>0.08999999999999997</v>
+        <v>0.13</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>510</v>
@@ -15245,25 +15245,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.0003941149377817243</v>
+        <v>0.0003679695824778031</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E234">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F234">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>511</v>
@@ -15295,25 +15295,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.0003875012370091427</v>
+        <v>0.0003679695824778031</v>
       </c>
       <c r="C235">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D235">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E235">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
       <c r="F235">
-        <v>0.13</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>512</v>
@@ -15345,25 +15345,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.0003636375751227839</v>
+        <v>0.0003623557251180563</v>
       </c>
       <c r="C236">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D236">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E236">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="F236">
-        <v>0.09999999999999998</v>
+        <v>0.14</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>513</v>
@@ -15395,25 +15395,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.0003636375751227839</v>
+        <v>0.0003623557251180563</v>
       </c>
       <c r="C237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D237">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E237">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="F237">
-        <v>0.09999999999999998</v>
+        <v>0.14</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>514</v>
@@ -15445,19 +15445,19 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.0003580898082023845</v>
+        <v>0.000334278075949552</v>
       </c>
       <c r="C238">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D238">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E238">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="F238">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
@@ -15495,25 +15495,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.0003580898082023845</v>
+        <v>0.000334278075949552</v>
       </c>
       <c r="C239">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D239">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E239">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="F239">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>516</v>
@@ -15545,7 +15545,7 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.0003303427096785573</v>
+        <v>0.000334278075949552</v>
       </c>
       <c r="C240">
         <v>1</v>
@@ -15563,7 +15563,7 @@
         <v>1</v>
       </c>
       <c r="H240">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>517</v>
@@ -15595,7 +15595,7 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.0003303427096785573</v>
+        <v>0.000334278075949552</v>
       </c>
       <c r="C241">
         <v>1</v>
@@ -15613,7 +15613,7 @@
         <v>1</v>
       </c>
       <c r="H241">
-        <v>87</v>
+        <v>455</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>518</v>
@@ -15645,25 +15645,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.0003303427096785573</v>
+        <v>0.0003309323896932268</v>
       </c>
       <c r="C242">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D242">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E242">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="F242">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>519</v>
@@ -15695,25 +15695,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.0003303427096785573</v>
+        <v>0.0002977047096379432</v>
       </c>
       <c r="C243">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D243">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E243">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="F243">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>455</v>
+        <v>154</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>520</v>
@@ -15745,25 +15745,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.0003270364112905782</v>
+        <v>0.0002977047096379432</v>
       </c>
       <c r="C244">
         <v>2</v>
       </c>
       <c r="D244">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E244">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="F244">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
       </c>
       <c r="H244">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>521</v>
@@ -15795,25 +15795,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.0002941999118144621</v>
+        <v>0.0002972349865577172</v>
       </c>
       <c r="C245">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D245">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E245">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F245">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="G245" t="b">
         <v>1</v>
       </c>
       <c r="H245">
-        <v>154</v>
+        <v>28</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>522</v>
@@ -15845,25 +15845,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.0002941999118144621</v>
+        <v>0.0002972349865577172</v>
       </c>
       <c r="C246">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D246">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E246">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F246">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="G246" t="b">
         <v>1</v>
       </c>
       <c r="H246">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>523</v>
@@ -15895,7 +15895,7 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.0002937357186582713</v>
+        <v>0.0002972349865577172</v>
       </c>
       <c r="C247">
         <v>1</v>
@@ -15913,7 +15913,7 @@
         <v>1</v>
       </c>
       <c r="H247">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>524</v>
@@ -15945,25 +15945,25 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.0002937357186582713</v>
+        <v>0.0002562241904327462</v>
       </c>
       <c r="C248">
         <v>1</v>
       </c>
       <c r="D248">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E248">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F248">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
       </c>
       <c r="H248">
-        <v>49</v>
+        <v>179</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>525</v>
@@ -15995,25 +15995,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.0002937357186582713</v>
+        <v>0.0002562241904327462</v>
       </c>
       <c r="C249">
         <v>1</v>
       </c>
       <c r="D249">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E249">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F249">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>526</v>
@@ -16045,7 +16045,7 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.0002532077316536963</v>
+        <v>0.0002562241904327462</v>
       </c>
       <c r="C250">
         <v>1</v>
@@ -16063,7 +16063,7 @@
         <v>1</v>
       </c>
       <c r="H250">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>527</v>
@@ -16095,7 +16095,7 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.0002532077316536963</v>
+        <v>0.0002562241904327462</v>
       </c>
       <c r="C251">
         <v>1</v>
@@ -16113,7 +16113,7 @@
         <v>1</v>
       </c>
       <c r="H251">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>528</v>
@@ -16145,7 +16145,7 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.0002532077316536963</v>
+        <v>0.0002562241904327462</v>
       </c>
       <c r="C252">
         <v>1</v>
@@ -16163,7 +16163,7 @@
         <v>1</v>
       </c>
       <c r="H252">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>529</v>
@@ -16195,7 +16195,7 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.0002532077316536963</v>
+        <v>0.0002562241904327462</v>
       </c>
       <c r="C253">
         <v>1</v>
@@ -16213,7 +16213,7 @@
         <v>1</v>
       </c>
       <c r="H253">
-        <v>19</v>
+        <v>164</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>530</v>
@@ -16245,7 +16245,7 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.0002532077316536963</v>
+        <v>0.0002562241904327462</v>
       </c>
       <c r="C254">
         <v>1</v>
@@ -16263,7 +16263,7 @@
         <v>1</v>
       </c>
       <c r="H254">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>531</v>
@@ -16295,7 +16295,7 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.0002532077316536963</v>
+        <v>0.0002562241904327462</v>
       </c>
       <c r="C255">
         <v>1</v>
@@ -16313,7 +16313,7 @@
         <v>1</v>
       </c>
       <c r="H255">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>532</v>
@@ -16345,25 +16345,25 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.0002532077316536963</v>
+        <v>0.0002252936104350993</v>
       </c>
       <c r="C256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D256">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E256">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F256">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G256" t="b">
         <v>1</v>
       </c>
       <c r="H256">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>533</v>
@@ -16395,25 +16395,25 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.0002532077316536963</v>
+        <v>0.0002105090189761617</v>
       </c>
       <c r="C257">
         <v>1</v>
       </c>
       <c r="D257">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E257">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F257">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G257" t="b">
         <v>1</v>
       </c>
       <c r="H257">
-        <v>108</v>
+        <v>39</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>534</v>
@@ -16445,25 +16445,25 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.0002226412890913846</v>
+        <v>0.0002105090189761617</v>
       </c>
       <c r="C258">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D258">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E258">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F258">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G258" t="b">
         <v>1</v>
       </c>
       <c r="H258">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>535</v>
@@ -16495,7 +16495,7 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.0002080307526684904</v>
+        <v>0.0002105090189761617</v>
       </c>
       <c r="C259">
         <v>1</v>
@@ -16513,7 +16513,7 @@
         <v>1</v>
       </c>
       <c r="H259">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>536</v>
@@ -16545,7 +16545,7 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.0002080307526684904</v>
+        <v>0.0002105090189761617</v>
       </c>
       <c r="C260">
         <v>1</v>
@@ -16563,7 +16563,7 @@
         <v>1</v>
       </c>
       <c r="H260">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>537</v>
@@ -16595,7 +16595,7 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>0.0002080307526684904</v>
+        <v>0.0002105090189761617</v>
       </c>
       <c r="C261">
         <v>1</v>
@@ -16613,7 +16613,7 @@
         <v>1</v>
       </c>
       <c r="H261">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>538</v>
@@ -16645,7 +16645,7 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>0.0002080307526684904</v>
+        <v>0.0002105090189761617</v>
       </c>
       <c r="C262">
         <v>1</v>
@@ -16663,7 +16663,7 @@
         <v>1</v>
       </c>
       <c r="H262">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>539</v>
@@ -16695,25 +16695,25 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>0.0002080307526684904</v>
+        <v>0.0001859360919059693</v>
       </c>
       <c r="C263">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D263">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E263">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="F263">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="G263" t="b">
         <v>1</v>
       </c>
       <c r="H263">
-        <v>57</v>
+        <v>182</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>540</v>
@@ -16745,25 +16745,25 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0.0002080307526684904</v>
+        <v>0.000159306639696659</v>
       </c>
       <c r="C264">
         <v>1</v>
       </c>
       <c r="D264">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E264">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F264">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G264" t="b">
         <v>1</v>
       </c>
       <c r="H264">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>541</v>
@@ -16795,25 +16795,25 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>0.0001837471160882499</v>
+        <v>0.000159306639696659</v>
       </c>
       <c r="C265">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D265">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E265">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="F265">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G265" t="b">
         <v>1</v>
       </c>
       <c r="H265">
-        <v>182</v>
+        <v>51</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>542</v>
@@ -16845,7 +16845,7 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>0.0001574311652886325</v>
+        <v>0.000159306639696659</v>
       </c>
       <c r="C266">
         <v>1</v>
@@ -16863,7 +16863,7 @@
         <v>1</v>
       </c>
       <c r="H266">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>543</v>
@@ -16895,7 +16895,7 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>0.0001574311652886325</v>
+        <v>0.000159306639696659</v>
       </c>
       <c r="C267">
         <v>1</v>
@@ -16913,7 +16913,7 @@
         <v>1</v>
       </c>
       <c r="H267">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>544</v>
@@ -16945,7 +16945,7 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>0.0001574311652886325</v>
+        <v>0.000159306639696659</v>
       </c>
       <c r="C268">
         <v>1</v>
@@ -16963,7 +16963,7 @@
         <v>1</v>
       </c>
       <c r="H268">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>545</v>
@@ -16995,7 +16995,7 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>0.0001574311652886325</v>
+        <v>0.000159306639696659</v>
       </c>
       <c r="C269">
         <v>1</v>
@@ -17013,7 +17013,7 @@
         <v>1</v>
       </c>
       <c r="H269">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>546</v>
@@ -17045,7 +17045,7 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>0.0001574311652886325</v>
+        <v>0.000159306639696659</v>
       </c>
       <c r="C270">
         <v>1</v>
@@ -17063,7 +17063,7 @@
         <v>1</v>
       </c>
       <c r="H270">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>547</v>
@@ -17095,7 +17095,7 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>0.0001574311652886325</v>
+        <v>0.000159306639696659</v>
       </c>
       <c r="C271">
         <v>1</v>
@@ -17113,7 +17113,7 @@
         <v>1</v>
       </c>
       <c r="H271">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>548</v>
@@ -17145,7 +17145,7 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>0.0001574311652886325</v>
+        <v>0.000159306639696659</v>
       </c>
       <c r="C272">
         <v>1</v>
@@ -17163,7 +17163,7 @@
         <v>1</v>
       </c>
       <c r="H272">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>549</v>
@@ -17195,7 +17195,7 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>0.0001574311652886325</v>
+        <v>0.000159306639696659</v>
       </c>
       <c r="C273">
         <v>1</v>
@@ -17213,7 +17213,7 @@
         <v>1</v>
       </c>
       <c r="H273">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>550</v>
@@ -17245,7 +17245,7 @@
         <v>279</v>
       </c>
       <c r="B274">
-        <v>0.0001574311652886325</v>
+        <v>0.000159306639696659</v>
       </c>
       <c r="C274">
         <v>1</v>
@@ -17263,7 +17263,7 @@
         <v>1</v>
       </c>
       <c r="H274">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>551</v>
@@ -17295,25 +17295,25 @@
         <v>280</v>
       </c>
       <c r="B275">
-        <v>0.0001574311652886325</v>
+        <v>0.0001022253235610672</v>
       </c>
       <c r="C275">
         <v>1</v>
       </c>
       <c r="D275">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E275">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F275">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G275" t="b">
         <v>1</v>
       </c>
       <c r="H275">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>552</v>
@@ -17345,25 +17345,25 @@
         <v>281</v>
       </c>
       <c r="B276">
-        <v>0.0001574311652886325</v>
+        <v>0.0001022253235610672</v>
       </c>
       <c r="C276">
         <v>1</v>
       </c>
       <c r="D276">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E276">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F276">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G276" t="b">
         <v>1</v>
       </c>
       <c r="H276">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>553</v>
@@ -17395,7 +17395,7 @@
         <v>282</v>
       </c>
       <c r="B277">
-        <v>0.000101021852201957</v>
+        <v>0.0001022253235610672</v>
       </c>
       <c r="C277">
         <v>1</v>
@@ -17413,7 +17413,7 @@
         <v>1</v>
       </c>
       <c r="H277">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>554</v>
@@ -17445,7 +17445,7 @@
         <v>283</v>
       </c>
       <c r="B278">
-        <v>0.000101021852201957</v>
+        <v>0.0001022253235610672</v>
       </c>
       <c r="C278">
         <v>1</v>
@@ -17463,7 +17463,7 @@
         <v>1</v>
       </c>
       <c r="H278">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>555</v>
@@ -17495,7 +17495,7 @@
         <v>284</v>
       </c>
       <c r="B279">
-        <v>0.000101021852201957</v>
+        <v>0.0001022253235610672</v>
       </c>
       <c r="C279">
         <v>1</v>
@@ -17513,7 +17513,7 @@
         <v>1</v>
       </c>
       <c r="H279">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>556</v>
@@ -17545,7 +17545,7 @@
         <v>285</v>
       </c>
       <c r="B280">
-        <v>0.000101021852201957</v>
+        <v>0.0001022253235610672</v>
       </c>
       <c r="C280">
         <v>1</v>
@@ -17563,7 +17563,7 @@
         <v>1</v>
       </c>
       <c r="H280">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>557</v>
@@ -17595,7 +17595,7 @@
         <v>286</v>
       </c>
       <c r="B281">
-        <v>0.000101021852201957</v>
+        <v>0.0001022253235610672</v>
       </c>
       <c r="C281">
         <v>1</v>
@@ -17613,7 +17613,7 @@
         <v>1</v>
       </c>
       <c r="H281">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>558</v>
@@ -17645,25 +17645,25 @@
         <v>287</v>
       </c>
       <c r="B282">
-        <v>0.000101021852201957</v>
+        <v>0.0001016988149703133</v>
       </c>
       <c r="C282">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D282">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E282">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="F282">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="G282" t="b">
         <v>1</v>
       </c>
       <c r="H282">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>559</v>
@@ -17695,25 +17695,25 @@
         <v>288</v>
       </c>
       <c r="B283">
-        <v>0.000101021852201957</v>
+        <v>7.206808827905147E-05</v>
       </c>
       <c r="C283">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D283">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E283">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F283">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G283" t="b">
         <v>1</v>
       </c>
       <c r="H283">
-        <v>30</v>
+        <v>284</v>
       </c>
       <c r="J283" s="1" t="s">
         <v>560</v>
@@ -17745,25 +17745,25 @@
         <v>289</v>
       </c>
       <c r="B284">
-        <v>0.0001005015420558471</v>
+        <v>7.206808827905147E-05</v>
       </c>
       <c r="C284">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D284">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E284">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="F284">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="G284" t="b">
         <v>1</v>
       </c>
       <c r="H284">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="J284" s="1" t="s">
         <v>561</v>
@@ -17795,25 +17795,25 @@
         <v>290</v>
       </c>
       <c r="B285">
-        <v>7.121964997503524E-05</v>
+        <v>5.884334767384336E-05</v>
       </c>
       <c r="C285">
+        <v>2</v>
+      </c>
+      <c r="D285">
         <v>3</v>
       </c>
-      <c r="D285">
-        <v>9</v>
-      </c>
       <c r="E285">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="F285">
-        <v>0.33</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G285" t="b">
         <v>1</v>
       </c>
       <c r="H285">
-        <v>284</v>
+        <v>186</v>
       </c>
       <c r="J285" s="1" t="s">
         <v>562</v>
@@ -17845,25 +17845,25 @@
         <v>291</v>
       </c>
       <c r="B286">
-        <v>7.121964997503524E-05</v>
+        <v>5.884334767384336E-05</v>
       </c>
       <c r="C286">
+        <v>2</v>
+      </c>
+      <c r="D286">
         <v>3</v>
       </c>
-      <c r="D286">
-        <v>9</v>
-      </c>
       <c r="E286">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="F286">
-        <v>0.33</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G286" t="b">
         <v>1</v>
       </c>
       <c r="H286">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="J286" s="1" t="s">
         <v>563</v>
@@ -17895,25 +17895,25 @@
         <v>292</v>
       </c>
       <c r="B287">
-        <v>5.815060069948599E-05</v>
+        <v>4.160853016789165E-05</v>
       </c>
       <c r="C287">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D287">
         <v>3</v>
       </c>
       <c r="E287">
+        <v>0.67</v>
+      </c>
+      <c r="F287">
         <v>0.33</v>
       </c>
-      <c r="F287">
-        <v>0.6699999999999999</v>
-      </c>
       <c r="G287" t="b">
         <v>1</v>
       </c>
       <c r="H287">
-        <v>186</v>
+        <v>18</v>
       </c>
       <c r="J287" s="1" t="s">
         <v>564</v>
@@ -17945,25 +17945,25 @@
         <v>293</v>
       </c>
       <c r="B288">
-        <v>5.815060069948599E-05</v>
+        <v>4.160853016789165E-05</v>
       </c>
       <c r="C288">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D288">
         <v>3</v>
       </c>
       <c r="E288">
+        <v>0.67</v>
+      </c>
+      <c r="F288">
         <v>0.33</v>
       </c>
-      <c r="F288">
-        <v>0.6699999999999999</v>
-      </c>
       <c r="G288" t="b">
         <v>1</v>
       </c>
       <c r="H288">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J288" s="1" t="s">
         <v>565</v>
@@ -17995,7 +17995,7 @@
         <v>294</v>
       </c>
       <c r="B289">
-        <v>4.11186840846771E-05</v>
+        <v>4.160853016789165E-05</v>
       </c>
       <c r="C289">
         <v>1</v>
@@ -18013,7 +18013,7 @@
         <v>1</v>
       </c>
       <c r="H289">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J289" s="1" t="s">
         <v>566</v>
@@ -18045,7 +18045,7 @@
         <v>295</v>
       </c>
       <c r="B290">
-        <v>4.11186840846771E-05</v>
+        <v>4.160853016789165E-05</v>
       </c>
       <c r="C290">
         <v>1</v>
@@ -18063,7 +18063,7 @@
         <v>1</v>
       </c>
       <c r="H290">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="J290" s="1" t="s">
         <v>567</v>
@@ -18095,7 +18095,7 @@
         <v>296</v>
       </c>
       <c r="B291">
-        <v>4.11186840846771E-05</v>
+        <v>4.160853016789165E-05</v>
       </c>
       <c r="C291">
         <v>1</v>
@@ -18113,10 +18113,10 @@
         <v>1</v>
       </c>
       <c r="H291">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="J291" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K291">
         <v>0.0008600022951017347</v>
@@ -18145,7 +18145,7 @@
         <v>297</v>
       </c>
       <c r="B292">
-        <v>4.11186840846771E-05</v>
+        <v>4.160853016789165E-05</v>
       </c>
       <c r="C292">
         <v>1</v>
@@ -18163,10 +18163,10 @@
         <v>1</v>
       </c>
       <c r="H292">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="J292" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K292">
         <v>0.0008306739687994225</v>
@@ -18195,7 +18195,7 @@
         <v>298</v>
       </c>
       <c r="B293">
-        <v>4.11186840846771E-05</v>
+        <v>4.160853016789165E-05</v>
       </c>
       <c r="C293">
         <v>1</v>
@@ -18213,10 +18213,10 @@
         <v>1</v>
       </c>
       <c r="H293">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J293" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K293">
         <v>0.0008250520766951935</v>
@@ -18245,7 +18245,7 @@
         <v>299</v>
       </c>
       <c r="B294">
-        <v>4.11186840846771E-05</v>
+        <v>4.160853016789165E-05</v>
       </c>
       <c r="C294">
         <v>1</v>
@@ -18263,10 +18263,10 @@
         <v>1</v>
       </c>
       <c r="H294">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="J294" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K294">
         <v>0.0008250520766951935</v>
@@ -18295,7 +18295,7 @@
         <v>300</v>
       </c>
       <c r="B295">
-        <v>4.11186840846771E-05</v>
+        <v>4.160853016789165E-05</v>
       </c>
       <c r="C295">
         <v>1</v>
@@ -18313,10 +18313,10 @@
         <v>1</v>
       </c>
       <c r="H295">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="J295" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K295">
         <v>0.0008250520766951935</v>
@@ -18345,28 +18345,28 @@
         <v>301</v>
       </c>
       <c r="B296">
-        <v>4.11186840846771E-05</v>
+        <v>3.940850478001254E-05</v>
       </c>
       <c r="C296">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D296">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E296">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="F296">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="G296" t="b">
         <v>1</v>
       </c>
       <c r="H296">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J296" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K296">
         <v>0.0007497588445543429</v>
@@ -18395,25 +18395,25 @@
         <v>302</v>
       </c>
       <c r="B297">
-        <v>4.11186840846771E-05</v>
+        <v>2.033337362831632E-05</v>
       </c>
       <c r="C297">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D297">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E297">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="F297">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="G297" t="b">
         <v>1</v>
       </c>
       <c r="H297">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="J297" s="1" t="s">
         <v>568</v>
@@ -18445,25 +18445,25 @@
         <v>303</v>
       </c>
       <c r="B298">
-        <v>3.89445590065392E-05</v>
+        <v>0</v>
       </c>
       <c r="C298">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D298">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E298">
-        <v>0.62</v>
+        <v>0.5</v>
       </c>
       <c r="F298">
-        <v>0.38</v>
+        <v>0.5</v>
       </c>
       <c r="G298" t="b">
         <v>1</v>
       </c>
       <c r="H298">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="J298" s="1" t="s">
         <v>569</v>
@@ -18495,25 +18495,25 @@
         <v>304</v>
       </c>
       <c r="B299">
-        <v>2.009399426571498E-05</v>
+        <v>0</v>
       </c>
       <c r="C299">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D299">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E299">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F299">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G299" t="b">
         <v>1</v>
       </c>
       <c r="H299">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="J299" s="1" t="s">
         <v>570</v>
@@ -18563,7 +18563,7 @@
         <v>1</v>
       </c>
       <c r="H300">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="J300" s="1" t="s">
         <v>571</v>
@@ -18613,7 +18613,7 @@
         <v>1</v>
       </c>
       <c r="H301">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J301" s="1" t="s">
         <v>572</v>
@@ -18663,7 +18663,7 @@
         <v>1</v>
       </c>
       <c r="H302">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="J302" s="1" t="s">
         <v>573</v>
@@ -18713,7 +18713,7 @@
         <v>1</v>
       </c>
       <c r="H303">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="J303" s="1" t="s">
         <v>574</v>
@@ -18763,7 +18763,7 @@
         <v>1</v>
       </c>
       <c r="H304">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J304" s="1" t="s">
         <v>575</v>
@@ -18813,7 +18813,7 @@
         <v>1</v>
       </c>
       <c r="H305">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="J305" s="1" t="s">
         <v>576</v>
@@ -18863,7 +18863,7 @@
         <v>1</v>
       </c>
       <c r="H306">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="J306" s="1" t="s">
         <v>577</v>
@@ -18913,7 +18913,7 @@
         <v>1</v>
       </c>
       <c r="H307">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="J307" s="1" t="s">
         <v>578</v>
@@ -18963,7 +18963,7 @@
         <v>1</v>
       </c>
       <c r="H308">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J308" s="1" t="s">
         <v>579</v>
@@ -19013,7 +19013,7 @@
         <v>1</v>
       </c>
       <c r="H309">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J309" s="1" t="s">
         <v>580</v>
@@ -19063,7 +19063,7 @@
         <v>1</v>
       </c>
       <c r="H310">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J310" s="1" t="s">
         <v>581</v>
@@ -19113,7 +19113,7 @@
         <v>1</v>
       </c>
       <c r="H311">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="J311" s="1" t="s">
         <v>582</v>
@@ -19163,7 +19163,7 @@
         <v>1</v>
       </c>
       <c r="H312">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="J312" s="1" t="s">
         <v>583</v>
@@ -19191,30 +19191,6 @@
       </c>
     </row>
     <row r="313" spans="1:17">
-      <c r="A313" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B313">
-        <v>0</v>
-      </c>
-      <c r="C313">
-        <v>1</v>
-      </c>
-      <c r="D313">
-        <v>2</v>
-      </c>
-      <c r="E313">
-        <v>0.5</v>
-      </c>
-      <c r="F313">
-        <v>0.5</v>
-      </c>
-      <c r="G313" t="b">
-        <v>1</v>
-      </c>
-      <c r="H313">
-        <v>57</v>
-      </c>
       <c r="J313" s="1" t="s">
         <v>584</v>
       </c>
@@ -19241,30 +19217,6 @@
       </c>
     </row>
     <row r="314" spans="1:17">
-      <c r="A314" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B314">
-        <v>0</v>
-      </c>
-      <c r="C314">
-        <v>1</v>
-      </c>
-      <c r="D314">
-        <v>2</v>
-      </c>
-      <c r="E314">
-        <v>0.5</v>
-      </c>
-      <c r="F314">
-        <v>0.5</v>
-      </c>
-      <c r="G314" t="b">
-        <v>1</v>
-      </c>
-      <c r="H314">
-        <v>27</v>
-      </c>
       <c r="J314" s="1" t="s">
         <v>585</v>
       </c>
@@ -22828,7 +22780,7 @@
     </row>
     <row r="451" spans="10:17">
       <c r="J451" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K451">
         <v>0.0007177745127698696</v>
@@ -22854,7 +22806,7 @@
     </row>
     <row r="452" spans="10:17">
       <c r="J452" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K452">
         <v>0.0006811652172395615</v>
@@ -22880,7 +22832,7 @@
     </row>
     <row r="453" spans="10:17">
       <c r="J453" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K453">
         <v>0.0006811652172395615</v>
@@ -22906,7 +22858,7 @@
     </row>
     <row r="454" spans="10:17">
       <c r="J454" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K454">
         <v>0.0006389241751582609</v>
@@ -22932,7 +22884,7 @@
     </row>
     <row r="455" spans="10:17">
       <c r="J455" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K455">
         <v>0.0006199463335383923</v>
@@ -22958,7 +22910,7 @@
     </row>
     <row r="456" spans="10:17">
       <c r="J456" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K456">
         <v>0.000606598084332358</v>
@@ -22984,7 +22936,7 @@
     </row>
     <row r="457" spans="10:17">
       <c r="J457" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K457">
         <v>0.000606598084332358</v>
@@ -23010,7 +22962,7 @@
     </row>
     <row r="458" spans="10:17">
       <c r="J458" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K458">
         <v>0.000606598084332358</v>
@@ -23036,7 +22988,7 @@
     </row>
     <row r="459" spans="10:17">
       <c r="J459" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K459">
         <v>0.0005824777713227628</v>
@@ -23062,7 +23014,7 @@
     </row>
     <row r="460" spans="10:17">
       <c r="J460" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K460">
         <v>0.0005686175952464116</v>
@@ -23088,7 +23040,7 @@
     </row>
     <row r="461" spans="10:17">
       <c r="J461" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K461">
         <v>0.0005686175952464116</v>
@@ -23114,7 +23066,7 @@
     </row>
     <row r="462" spans="10:17">
       <c r="J462" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K462">
         <v>0.0005373898136396228</v>
@@ -32604,7 +32556,7 @@
     </row>
     <row r="827" spans="10:17">
       <c r="J827" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K827">
         <v>0.0004912171953110995</v>
@@ -32630,7 +32582,7 @@
     </row>
     <row r="828" spans="10:17">
       <c r="J828" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K828">
         <v>0.0004912171953110995</v>
@@ -32656,7 +32608,7 @@
     </row>
     <row r="829" spans="10:17">
       <c r="J829" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K829">
         <v>0.0004912171953110995</v>
@@ -32682,7 +32634,7 @@
     </row>
     <row r="830" spans="10:17">
       <c r="J830" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K830">
         <v>0.0004533946559076476</v>
@@ -32708,7 +32660,7 @@
     </row>
     <row r="831" spans="10:17">
       <c r="J831" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K831">
         <v>0.0004517876169184271</v>
@@ -32734,7 +32686,7 @@
     </row>
     <row r="832" spans="10:17">
       <c r="J832" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K832">
         <v>0.0004517876169184271</v>
@@ -32760,7 +32712,7 @@
     </row>
     <row r="833" spans="10:17">
       <c r="J833" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K833">
         <v>0.0004385342155557916</v>
@@ -32786,7 +32738,7 @@
     </row>
     <row r="834" spans="10:17">
       <c r="J834" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K834">
         <v>0.0004118739819927527</v>
@@ -32812,7 +32764,7 @@
     </row>
     <row r="835" spans="10:17">
       <c r="J835" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K835">
         <v>0.0004093187952688747</v>
@@ -32838,7 +32790,7 @@
     </row>
     <row r="836" spans="10:17">
       <c r="J836" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K836">
         <v>0.0003812179218671426</v>
@@ -32864,7 +32816,7 @@
     </row>
     <row r="837" spans="10:17">
       <c r="J837" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K837">
         <v>0.0003799919813651522</v>
@@ -32890,7 +32842,7 @@
     </row>
     <row r="838" spans="10:17">
       <c r="J838" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K838">
         <v>0.0003714886922750098</v>
@@ -32916,7 +32868,7 @@
     </row>
     <row r="839" spans="10:17">
       <c r="J839" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K839">
         <v>0.0003714886922750098</v>
@@ -32942,7 +32894,7 @@
     </row>
     <row r="840" spans="10:17">
       <c r="J840" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K840">
         <v>0.0003306584133377984</v>
@@ -32968,7 +32920,7 @@
     </row>
     <row r="841" spans="10:17">
       <c r="J841" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K841">
         <v>0.0003306584133377984</v>
@@ -32994,7 +32946,7 @@
     </row>
     <row r="842" spans="10:17">
       <c r="J842" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K842">
         <v>0.0003306584133377984</v>
@@ -33020,7 +32972,7 @@
     </row>
     <row r="843" spans="10:17">
       <c r="J843" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K843">
         <v>0.0003306584133377984</v>
@@ -33046,7 +32998,7 @@
     </row>
     <row r="844" spans="10:17">
       <c r="J844" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K844">
         <v>0.0003306584133377984</v>
@@ -33072,7 +33024,7 @@
     </row>
     <row r="845" spans="10:17">
       <c r="J845" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K845">
         <v>0.0003210969803860157</v>
@@ -33098,7 +33050,7 @@
     </row>
     <row r="846" spans="10:17">
       <c r="J846" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K846">
         <v>0.0003084021383157194</v>
@@ -33124,7 +33076,7 @@
     </row>
     <row r="847" spans="10:17">
       <c r="J847" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K847">
         <v>0.0002915932456734705</v>
@@ -33150,7 +33102,7 @@
     </row>
     <row r="848" spans="10:17">
       <c r="J848" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K848">
         <v>0.0002894320958017294</v>
@@ -33176,7 +33128,7 @@
     </row>
     <row r="849" spans="10:17">
       <c r="J849" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K849">
         <v>0.0002894320958017294</v>
@@ -33202,7 +33154,7 @@
     </row>
     <row r="850" spans="10:17">
       <c r="J850" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K850">
         <v>0.0002621117277490882</v>
@@ -33228,7 +33180,7 @@
     </row>
     <row r="851" spans="10:17">
       <c r="J851" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K851">
         <v>0.0002478942206963927</v>
@@ -33254,7 +33206,7 @@
     </row>
     <row r="852" spans="10:17">
       <c r="J852" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K852">
         <v>0.0002478942206963927</v>
@@ -33280,7 +33232,7 @@
     </row>
     <row r="853" spans="10:17">
       <c r="J853" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K853">
         <v>0.0002478942206963927</v>
@@ -33306,7 +33258,7 @@
     </row>
     <row r="854" spans="10:17">
       <c r="J854" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K854">
         <v>0.0002478942206963927</v>
@@ -33332,7 +33284,7 @@
     </row>
     <row r="855" spans="10:17">
       <c r="J855" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K855">
         <v>0.0002327149410475892</v>
@@ -33358,7 +33310,7 @@
     </row>
     <row r="856" spans="10:17">
       <c r="J856" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K856">
         <v>0.0002327149410475892</v>
@@ -33384,7 +33336,7 @@
     </row>
     <row r="857" spans="10:17">
       <c r="J857" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K857">
         <v>0.0002069737620827053</v>
@@ -33410,7 +33362,7 @@
     </row>
     <row r="858" spans="10:17">
       <c r="J858" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K858">
         <v>0.0002061875613639064</v>
@@ -33436,7 +33388,7 @@
     </row>
     <row r="859" spans="10:17">
       <c r="J859" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K859">
         <v>0.0002061875613639064</v>
@@ -33462,7 +33414,7 @@
     </row>
     <row r="860" spans="10:17">
       <c r="J860" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K860">
         <v>0.0002061875613639064</v>
@@ -33488,7 +33440,7 @@
     </row>
     <row r="861" spans="10:17">
       <c r="J861" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K861">
         <v>0.0002034858125921331</v>
@@ -33514,7 +33466,7 @@
     </row>
     <row r="862" spans="10:17">
       <c r="J862" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K862">
         <v>0.0001745356798450708</v>
@@ -33540,7 +33492,7 @@
     </row>
     <row r="863" spans="10:17">
       <c r="J863" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K863">
         <v>0.0001745356798450708</v>
@@ -33566,7 +33518,7 @@
     </row>
     <row r="864" spans="10:17">
       <c r="J864" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K864">
         <v>0.0001645543128981779</v>
@@ -33592,7 +33544,7 @@
     </row>
     <row r="865" spans="10:17">
       <c r="J865" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K865">
         <v>0.0001645543128981779</v>
@@ -33618,7 +33570,7 @@
     </row>
     <row r="866" spans="10:17">
       <c r="J866" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K866">
         <v>0.0001645543128981779</v>
@@ -33644,7 +33596,7 @@
     </row>
     <row r="867" spans="10:17">
       <c r="J867" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K867">
         <v>0.0001645543128981779</v>
@@ -33670,7 +33622,7 @@
     </row>
     <row r="868" spans="10:17">
       <c r="J868" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K868">
         <v>0.0001645543128981779</v>
@@ -33696,7 +33648,7 @@
     </row>
     <row r="869" spans="10:17">
       <c r="J869" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K869">
         <v>0.0001645543128981779</v>
@@ -33722,7 +33674,7 @@
     </row>
     <row r="870" spans="10:17">
       <c r="J870" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K870">
         <v>0.0001645543128981779</v>
@@ -33748,7 +33700,7 @@
     </row>
     <row r="871" spans="10:17">
       <c r="J871" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K871">
         <v>0.0001645543128981779</v>
@@ -33774,7 +33726,7 @@
     </row>
     <row r="872" spans="10:17">
       <c r="J872" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K872">
         <v>0.0001234153627774538</v>
@@ -33800,7 +33752,7 @@
     </row>
     <row r="873" spans="10:17">
       <c r="J873" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K873">
         <v>0.0001234153627774538</v>
@@ -33826,7 +33778,7 @@
     </row>
     <row r="874" spans="10:17">
       <c r="J874" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K874">
         <v>0.0001234153627774538</v>
@@ -33852,7 +33804,7 @@
     </row>
     <row r="875" spans="10:17">
       <c r="J875" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K875">
         <v>0.0001234153627774538</v>
@@ -33878,7 +33830,7 @@
     </row>
     <row r="876" spans="10:17">
       <c r="J876" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K876">
         <v>0.0001234153627774538</v>
@@ -33904,7 +33856,7 @@
     </row>
     <row r="877" spans="10:17">
       <c r="J877" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K877">
         <v>0.0001234153627774538</v>
@@ -33930,7 +33882,7 @@
     </row>
     <row r="878" spans="10:17">
       <c r="J878" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K878">
         <v>0.0001181387537522029</v>
@@ -33956,7 +33908,7 @@
     </row>
     <row r="879" spans="10:17">
       <c r="J879" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K879">
         <v>9.120344336748257E-05</v>
@@ -33982,7 +33934,7 @@
     </row>
     <row r="880" spans="10:17">
       <c r="J880" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K880">
         <v>8.353671389911038E-05</v>
@@ -34008,7 +33960,7 @@
     </row>
     <row r="881" spans="10:17">
       <c r="J881" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K881">
         <v>8.353671389911038E-05</v>
@@ -34034,7 +33986,7 @@
     </row>
     <row r="882" spans="10:17">
       <c r="J882" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K882">
         <v>8.353671389911038E-05</v>
@@ -34060,7 +34012,7 @@
     </row>
     <row r="883" spans="10:17">
       <c r="J883" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K883">
         <v>8.353671389911038E-05</v>
@@ -34086,7 +34038,7 @@
     </row>
     <row r="884" spans="10:17">
       <c r="J884" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K884">
         <v>8.353671389911038E-05</v>
@@ -34112,7 +34064,7 @@
     </row>
     <row r="885" spans="10:17">
       <c r="J885" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K885">
         <v>8.353671389911038E-05</v>
@@ -34138,7 +34090,7 @@
     </row>
     <row r="886" spans="10:17">
       <c r="J886" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K886">
         <v>8.353671389911038E-05</v>
@@ -34164,7 +34116,7 @@
     </row>
     <row r="887" spans="10:17">
       <c r="J887" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K887">
         <v>8.353671389911038E-05</v>
@@ -34190,7 +34142,7 @@
     </row>
     <row r="888" spans="10:17">
       <c r="J888" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K888">
         <v>8.353671389911038E-05</v>
@@ -34216,7 +34168,7 @@
     </row>
     <row r="889" spans="10:17">
       <c r="J889" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K889">
         <v>8.353671389911038E-05</v>
@@ -34242,7 +34194,7 @@
     </row>
     <row r="890" spans="10:17">
       <c r="J890" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K890">
         <v>8.353671389911038E-05</v>
@@ -34268,7 +34220,7 @@
     </row>
     <row r="891" spans="10:17">
       <c r="J891" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K891">
         <v>6.717901692913675E-05</v>
@@ -34294,7 +34246,7 @@
     </row>
     <row r="892" spans="10:17">
       <c r="J892" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K892">
         <v>4.642293943032013E-05</v>
@@ -34320,7 +34272,7 @@
     </row>
     <row r="893" spans="10:17">
       <c r="J893" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K893">
         <v>4.642293943032013E-05</v>
@@ -34346,7 +34298,7 @@
     </row>
     <row r="894" spans="10:17">
       <c r="J894" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K894">
         <v>4.642293943032013E-05</v>
@@ -34372,7 +34324,7 @@
     </row>
     <row r="895" spans="10:17">
       <c r="J895" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K895">
         <v>4.642293943032013E-05</v>
@@ -34398,7 +34350,7 @@
     </row>
     <row r="896" spans="10:17">
       <c r="J896" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K896">
         <v>4.642293943032013E-05</v>
@@ -34424,7 +34376,7 @@
     </row>
     <row r="897" spans="10:17">
       <c r="J897" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K897">
         <v>4.642293943032013E-05</v>
@@ -34450,7 +34402,7 @@
     </row>
     <row r="898" spans="10:17">
       <c r="J898" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K898">
         <v>4.642293943032013E-05</v>
@@ -34476,7 +34428,7 @@
     </row>
     <row r="899" spans="10:17">
       <c r="J899" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K899">
         <v>4.215988439975523E-05</v>
@@ -34502,7 +34454,7 @@
     </row>
     <row r="900" spans="10:17">
       <c r="J900" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K900">
         <v>2.672215718943869E-05</v>
@@ -34528,7 +34480,7 @@
     </row>
     <row r="901" spans="10:17">
       <c r="J901" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K901">
         <v>2.672215718943869E-05</v>
@@ -34554,7 +34506,7 @@
     </row>
     <row r="902" spans="10:17">
       <c r="J902" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K902">
         <v>1.542804464665017E-05</v>
@@ -34580,7 +34532,7 @@
     </row>
     <row r="903" spans="10:17">
       <c r="J903" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K903">
         <v>1.542804464665017E-05</v>
@@ -34606,7 +34558,7 @@
     </row>
     <row r="904" spans="10:17">
       <c r="J904" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K904">
         <v>1.542804464665017E-05</v>
@@ -34632,7 +34584,7 @@
     </row>
     <row r="905" spans="10:17">
       <c r="J905" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K905">
         <v>1.542804464665017E-05</v>
@@ -34658,7 +34610,7 @@
     </row>
     <row r="906" spans="10:17">
       <c r="J906" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K906">
         <v>1.542804464665017E-05</v>
@@ -34684,7 +34636,7 @@
     </row>
     <row r="907" spans="10:17">
       <c r="J907" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K907">
         <v>1.542804464665017E-05</v>
@@ -34710,7 +34662,7 @@
     </row>
     <row r="908" spans="10:17">
       <c r="J908" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K908">
         <v>1.542804464665017E-05</v>
@@ -34736,7 +34688,7 @@
     </row>
     <row r="909" spans="10:17">
       <c r="J909" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K909">
         <v>1.542804464665017E-05</v>
@@ -34762,7 +34714,7 @@
     </row>
     <row r="910" spans="10:17">
       <c r="J910" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K910">
         <v>1.542804464665017E-05</v>
@@ -34788,7 +34740,7 @@
     </row>
     <row r="911" spans="10:17">
       <c r="J911" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K911">
         <v>1.333914049600522E-05</v>
@@ -34814,7 +34766,7 @@
     </row>
     <row r="912" spans="10:17">
       <c r="J912" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K912">
         <v>1.090927499009498E-05</v>
@@ -34840,7 +34792,7 @@
     </row>
     <row r="913" spans="10:17">
       <c r="J913" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K913">
         <v>1.090927499009498E-05</v>
@@ -34866,7 +34818,7 @@
     </row>
     <row r="914" spans="10:17">
       <c r="J914" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K914">
         <v>6.529329491993787E-06</v>
@@ -34892,7 +34844,7 @@
     </row>
     <row r="915" spans="10:17">
       <c r="J915" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K915">
         <v>0</v>
@@ -34918,7 +34870,7 @@
     </row>
     <row r="916" spans="10:17">
       <c r="J916" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K916">
         <v>0</v>
@@ -34944,7 +34896,7 @@
     </row>
     <row r="917" spans="10:17">
       <c r="J917" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K917">
         <v>0</v>
@@ -34970,7 +34922,7 @@
     </row>
     <row r="918" spans="10:17">
       <c r="J918" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K918">
         <v>0</v>
@@ -34996,7 +34948,7 @@
     </row>
     <row r="919" spans="10:17">
       <c r="J919" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K919">
         <v>0</v>
@@ -35022,7 +34974,7 @@
     </row>
     <row r="920" spans="10:17">
       <c r="J920" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K920">
         <v>0</v>
@@ -35048,7 +35000,7 @@
     </row>
     <row r="921" spans="10:17">
       <c r="J921" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K921">
         <v>0</v>
@@ -35074,7 +35026,7 @@
     </row>
     <row r="922" spans="10:17">
       <c r="J922" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K922">
         <v>0</v>
@@ -35100,7 +35052,7 @@
     </row>
     <row r="923" spans="10:17">
       <c r="J923" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K923">
         <v>0</v>
@@ -35126,7 +35078,7 @@
     </row>
     <row r="924" spans="10:17">
       <c r="J924" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K924">
         <v>0</v>
@@ -35152,7 +35104,7 @@
     </row>
     <row r="925" spans="10:17">
       <c r="J925" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K925">
         <v>0</v>
@@ -35178,7 +35130,7 @@
     </row>
     <row r="926" spans="10:17">
       <c r="J926" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K926">
         <v>0</v>
@@ -35204,7 +35156,7 @@
     </row>
     <row r="927" spans="10:17">
       <c r="J927" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K927">
         <v>0</v>
@@ -35230,7 +35182,7 @@
     </row>
     <row r="928" spans="10:17">
       <c r="J928" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K928">
         <v>0</v>
@@ -35256,7 +35208,7 @@
     </row>
     <row r="929" spans="10:17">
       <c r="J929" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K929">
         <v>0</v>
